--- a/rtss-pre1917/src/main/resources/csk-ezhegodnik-rossii/year-volumes/1905.xlsx
+++ b/rtss-pre1917/src/main/resources/csk-ezhegodnik-rossii/year-volumes/1905.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\github\RTSS\rtss-pre1917\src\main\resources\csk-ezhegodnik-rossii\year-volumes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79A17AED-53BE-407A-B74A-509DD5CB861A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{687EA62C-72C9-4BB5-BF8A-D7F73F102A54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="84660" yWindow="0" windowWidth="28950" windowHeight="23295" activeTab="1" xr2:uid="{AE443646-E8D1-4FCB-84A2-F0153A34DA1E}"/>
+    <workbookView xWindow="86580" yWindow="45" windowWidth="25620" windowHeight="22740" xr2:uid="{AE443646-E8D1-4FCB-84A2-F0153A34DA1E}"/>
   </bookViews>
   <sheets>
     <sheet name="note" sheetId="1" r:id="rId1"/>
@@ -72,9 +72,6 @@
     <t>чж-всего-о</t>
   </si>
   <si>
-    <t>население на 1 января 1904</t>
-  </si>
-  <si>
     <t>Архангельская</t>
   </si>
   <si>
@@ -409,6 +406,9 @@
   </si>
   <si>
     <t>Империя с Финляндией</t>
+  </si>
+  <si>
+    <t>население на 1 января 1905</t>
   </si>
 </sst>
 </file>
@@ -791,8 +791,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{651B1421-8802-4AD1-85C6-4C81BDB0FEBC}">
   <dimension ref="A1:A4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -804,12 +804,12 @@
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" t="s">
-        <v>11</v>
+        <v>123</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
   </sheetData>
@@ -821,7 +821,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72E77F90-5D71-4CEC-BEEE-B421AD8A8EDB}">
   <dimension ref="A1:S108"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
+    <sheetView topLeftCell="A67" workbookViewId="0">
       <selection activeCell="N112" sqref="N112"/>
     </sheetView>
   </sheetViews>
@@ -852,7 +852,7 @@
         <v>7</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F1" s="1"/>
       <c r="G1" s="1" t="s">
@@ -865,7 +865,7 @@
         <v>4</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="K1" s="1"/>
       <c r="L1" s="1" t="s">
@@ -878,21 +878,21 @@
         <v>10</v>
       </c>
       <c r="O1" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="Q1" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="Q1" s="3" t="s">
+      <c r="R1" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="R1" s="3" t="s">
+      <c r="S1" s="3" t="s">
         <v>103</v>
-      </c>
-      <c r="S1" s="3" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B2" s="2">
         <v>168.9</v>
@@ -950,7 +950,7 @@
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B3" s="2">
         <v>494.9</v>
@@ -1008,7 +1008,7 @@
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B4" s="2">
         <v>972.6</v>
@@ -1066,7 +1066,7 @@
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B5" s="2">
         <v>782.9</v>
@@ -1122,7 +1122,7 @@
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B6" s="2">
         <v>720</v>
@@ -1178,7 +1178,7 @@
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B7" s="2">
         <v>687.6</v>
@@ -1236,7 +1236,7 @@
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B8" s="2">
         <v>679.4</v>
@@ -1294,7 +1294,7 @@
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B9" s="2">
         <v>1620.2</v>
@@ -1352,7 +1352,7 @@
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B10" s="2">
         <v>1416.8</v>
@@ -1410,7 +1410,7 @@
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B11" s="2">
         <v>1596.1</v>
@@ -1468,7 +1468,7 @@
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B12" s="2">
         <v>777.2</v>
@@ -1526,7 +1526,7 @@
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B13" s="2">
         <v>1385.4</v>
@@ -1584,7 +1584,7 @@
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B14" s="2">
         <v>1217.7</v>
@@ -1642,7 +1642,7 @@
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B15" s="2">
         <v>1112.5</v>
@@ -1700,7 +1700,7 @@
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B16" s="2">
         <v>523.70000000000005</v>
@@ -1758,7 +1758,7 @@
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B17" s="2">
         <v>1805.7</v>
@@ -1816,7 +1816,7 @@
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B18" s="2">
         <v>740.9</v>
@@ -1874,7 +1874,7 @@
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B19" s="2">
         <v>666.5</v>
@@ -1932,7 +1932,7 @@
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B20" s="2">
         <v>257.5</v>
@@ -1990,7 +1990,7 @@
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B21" s="2">
         <v>1251.3</v>
@@ -2048,7 +2048,7 @@
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B22" s="2">
         <v>477</v>
@@ -2106,7 +2106,7 @@
     </row>
     <row r="23" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B23" s="2">
         <v>1143.4000000000001</v>
@@ -2164,7 +2164,7 @@
     </row>
     <row r="24" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B24" s="2">
         <v>899.3</v>
@@ -2222,7 +2222,7 @@
     </row>
     <row r="25" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B25" s="2">
         <v>667</v>
@@ -2280,7 +2280,7 @@
     </row>
     <row r="26" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B26" s="2">
         <v>776.2</v>
@@ -2338,7 +2338,7 @@
     </row>
     <row r="27" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B27" s="2">
         <v>689.2</v>
@@ -2396,7 +2396,7 @@
     </row>
     <row r="28" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B28" s="2">
         <v>176.1</v>
@@ -2454,7 +2454,7 @@
     </row>
     <row r="29" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B29" s="2">
         <v>816.7</v>
@@ -2512,7 +2512,7 @@
     </row>
     <row r="30" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B30" s="2">
         <v>1007.3</v>
@@ -2570,7 +2570,7 @@
     </row>
     <row r="31" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B31" s="2">
         <v>729.4</v>
@@ -2628,7 +2628,7 @@
     </row>
     <row r="32" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B32" s="2">
         <v>1562.3</v>
@@ -2686,7 +2686,7 @@
     </row>
     <row r="33" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B33" s="2">
         <v>1621.8</v>
@@ -2744,7 +2744,7 @@
     </row>
     <row r="34" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B34" s="2">
         <v>1473.1</v>
@@ -2802,7 +2802,7 @@
     </row>
     <row r="35" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B35" s="2">
         <v>569.79999999999995</v>
@@ -2860,7 +2860,7 @@
     </row>
     <row r="36" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B36" s="2">
         <v>888.9</v>
@@ -2918,7 +2918,7 @@
     </row>
     <row r="37" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B37" s="2">
         <v>1498</v>
@@ -2976,7 +2976,7 @@
     </row>
     <row r="38" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B38" s="2">
         <v>353.9</v>
@@ -3034,7 +3034,7 @@
     </row>
     <row r="39" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B39" s="2">
         <v>1201.8</v>
@@ -3092,7 +3092,7 @@
     </row>
     <row r="40" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B40" s="2">
         <v>787.6</v>
@@ -3150,7 +3150,7 @@
     </row>
     <row r="41" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B41" s="2">
         <v>763.7</v>
@@ -3208,7 +3208,7 @@
     </row>
     <row r="42" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B42" s="2">
         <v>704.9</v>
@@ -3266,7 +3266,7 @@
     </row>
     <row r="43" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A43" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B43" s="2">
         <v>1401.1</v>
@@ -3324,7 +3324,7 @@
     </row>
     <row r="44" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A44" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B44" s="2">
         <v>857</v>
@@ -3382,7 +3382,7 @@
     </row>
     <row r="45" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A45" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B45" s="2">
         <v>670.6</v>
@@ -3440,7 +3440,7 @@
     </row>
     <row r="46" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A46" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B46" s="2">
         <v>1222.0999999999999</v>
@@ -3498,7 +3498,7 @@
     </row>
     <row r="47" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A47" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B47" s="2">
         <v>1260.3</v>
@@ -3556,7 +3556,7 @@
     </row>
     <row r="48" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A48" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B48" s="2">
         <v>1178.8</v>
@@ -3614,7 +3614,7 @@
     </row>
     <row r="49" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A49" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B49" s="2">
         <v>1217.5999999999999</v>
@@ -3672,7 +3672,7 @@
     </row>
     <row r="50" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A50" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B50" s="2">
         <v>179.8</v>
@@ -3730,7 +3730,7 @@
     </row>
     <row r="51" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A51" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B51" s="2">
         <v>435.6</v>
@@ -3788,7 +3788,7 @@
     </row>
     <row r="52" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A52" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B52" s="2">
         <v>46108.1</v>
@@ -3846,7 +3846,7 @@
     </row>
     <row r="53" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A53" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B53" s="2">
         <v>4207.3</v>
@@ -3904,7 +3904,7 @@
     </row>
     <row r="54" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A54" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B54" s="2">
         <v>652.70000000000005</v>
@@ -3962,7 +3962,7 @@
     </row>
     <row r="55" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A55" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B55" s="2">
         <v>414.6</v>
@@ -4020,7 +4020,7 @@
     </row>
     <row r="56" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A56" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B56" s="2">
         <v>410.8</v>
@@ -4078,7 +4078,7 @@
     </row>
     <row r="57" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A57" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B57" s="2">
         <v>289.3</v>
@@ -4136,7 +4136,7 @@
     </row>
     <row r="58" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A58" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B58" s="2">
         <v>593.9</v>
@@ -4194,7 +4194,7 @@
     </row>
     <row r="59" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A59" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B59" s="2">
         <v>525.5</v>
@@ -4252,7 +4252,7 @@
     </row>
     <row r="60" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A60" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B60" s="2">
         <v>254.2</v>
@@ -4310,7 +4310,7 @@
     </row>
     <row r="61" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A61" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B61" s="2">
         <v>408.1</v>
@@ -4368,7 +4368,7 @@
     </row>
     <row r="62" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A62" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B62" s="2">
         <v>272.89999999999998</v>
@@ -4426,7 +4426,7 @@
     </row>
     <row r="63" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A63" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B63" s="2">
         <v>385.3</v>
@@ -4484,7 +4484,7 @@
     </row>
     <row r="64" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A64" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B64" s="2">
         <v>4763.6000000000004</v>
@@ -4542,7 +4542,7 @@
     </row>
     <row r="65" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A65" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B65" s="2">
         <v>377.1</v>
@@ -4600,7 +4600,7 @@
     </row>
     <row r="66" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A66" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B66" s="2">
         <v>58.6</v>
@@ -4658,7 +4658,7 @@
     </row>
     <row r="67" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A67" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B67" s="2">
         <v>284.60000000000002</v>
@@ -4716,7 +4716,7 @@
     </row>
     <row r="68" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A68" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B68" s="2">
         <v>471.3</v>
@@ -4774,7 +4774,7 @@
     </row>
     <row r="69" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A69" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" s="2"/>
@@ -4814,7 +4814,7 @@
     </row>
     <row r="70" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A70" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B70" s="2">
         <v>164.4</v>
@@ -4872,7 +4872,7 @@
     </row>
     <row r="71" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A71" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B71" s="2">
         <v>1037.9000000000001</v>
@@ -4930,7 +4930,7 @@
     </row>
     <row r="72" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A72" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B72" s="2">
         <v>443.9</v>
@@ -4988,7 +4988,7 @@
     </row>
     <row r="73" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A73" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B73" s="2">
         <v>473.4</v>
@@ -5046,7 +5046,7 @@
     </row>
     <row r="74" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A74" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B74" s="2">
         <v>54.5</v>
@@ -5104,7 +5104,7 @@
     </row>
     <row r="75" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A75" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B75" s="2">
         <v>455.7</v>
@@ -5162,7 +5162,7 @@
     </row>
     <row r="76" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A76" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B76" s="2">
         <v>489.2</v>
@@ -5220,7 +5220,7 @@
     </row>
     <row r="77" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A77" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B77" s="2">
         <v>25.5</v>
@@ -5278,7 +5278,7 @@
     </row>
     <row r="78" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A78" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B78" s="2">
         <v>427.5</v>
@@ -5336,7 +5336,7 @@
     </row>
     <row r="79" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A79" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B79" s="2">
         <v>3076</v>
@@ -5394,7 +5394,7 @@
     </row>
     <row r="80" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A80" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B80" s="2">
         <v>58</v>
@@ -5452,7 +5452,7 @@
     </row>
     <row r="81" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A81" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B81" s="2">
         <v>299</v>
@@ -5510,7 +5510,7 @@
     </row>
     <row r="82" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A82" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B82" s="2">
         <v>350.7</v>
@@ -5568,7 +5568,7 @@
     </row>
     <row r="83" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A83" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B83" s="2">
         <v>249.7</v>
@@ -5626,7 +5626,7 @@
     </row>
     <row r="84" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A84" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B84" s="2">
         <v>113.1</v>
@@ -5684,7 +5684,7 @@
     </row>
     <row r="85" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A85" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B85" s="2"/>
       <c r="C85" s="2"/>
@@ -5724,7 +5724,7 @@
     </row>
     <row r="86" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A86" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B86" s="2">
         <v>760.4</v>
@@ -5782,7 +5782,7 @@
     </row>
     <row r="87" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A87" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B87" s="2">
         <v>1096.5999999999999</v>
@@ -5840,7 +5840,7 @@
     </row>
     <row r="88" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A88" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B88" s="2">
         <v>148.5</v>
@@ -5898,7 +5898,7 @@
     </row>
     <row r="89" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A89" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B89" s="2">
         <v>4132</v>
@@ -5954,7 +5954,7 @@
     </row>
     <row r="90" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A90" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B90" s="2">
         <v>361.6</v>
@@ -6012,7 +6012,7 @@
     </row>
     <row r="91" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A91" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B91" s="2">
         <v>183.2</v>
@@ -6070,7 +6070,7 @@
     </row>
     <row r="92" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A92" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B92" s="2">
         <v>464.3</v>
@@ -6128,7 +6128,7 @@
     </row>
     <row r="93" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A93" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B93" s="2">
         <v>369.1</v>
@@ -6186,7 +6186,7 @@
     </row>
     <row r="94" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A94" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B94" s="2">
         <v>549.1</v>
@@ -6244,7 +6244,7 @@
     </row>
     <row r="95" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A95" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B95" s="2">
         <v>811.7</v>
@@ -6302,7 +6302,7 @@
     </row>
     <row r="96" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A96" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B96" s="2">
         <v>252.1</v>
@@ -6360,7 +6360,7 @@
     </row>
     <row r="97" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A97" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B97" s="2">
         <v>348.5</v>
@@ -6418,7 +6418,7 @@
     </row>
     <row r="98" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A98" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B98" s="2">
         <v>792.4</v>
@@ -6476,7 +6476,7 @@
     </row>
     <row r="99" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A99" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B99" s="2">
         <v>1222.3</v>
@@ -6534,7 +6534,7 @@
     </row>
     <row r="100" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A100" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B100" s="2">
         <v>196.5</v>
@@ -6592,7 +6592,7 @@
     </row>
     <row r="101" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A101" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B101" s="2">
         <v>220.9</v>
@@ -6650,7 +6650,7 @@
     </row>
     <row r="102" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A102" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B102" s="2">
         <v>197.8</v>
@@ -6708,7 +6708,7 @@
     </row>
     <row r="103" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A103" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B103" s="2">
         <v>149.80000000000001</v>
@@ -6766,7 +6766,7 @@
     </row>
     <row r="104" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A104" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B104" s="2">
         <v>97.4</v>
@@ -6824,7 +6824,7 @@
     </row>
     <row r="105" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A105" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B105" s="2">
         <v>90.9</v>
@@ -6882,7 +6882,7 @@
     </row>
     <row r="106" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A106" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B106" s="2">
         <v>134.69999999999999</v>
@@ -6940,7 +6940,7 @@
     </row>
     <row r="107" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A107" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B107" s="2">
         <v>134.30000000000001</v>
@@ -6998,7 +6998,7 @@
     </row>
     <row r="108" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A108" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B108" s="2">
         <v>63509.3</v>

--- a/rtss-pre1917/src/main/resources/csk-ezhegodnik-rossii/year-volumes/1905.xlsx
+++ b/rtss-pre1917/src/main/resources/csk-ezhegodnik-rossii/year-volumes/1905.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\github\RTSS\rtss-pre1917\src\main\resources\csk-ezhegodnik-rossii\year-volumes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{687EA62C-72C9-4BB5-BF8A-D7F73F102A54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21E23D9A-1DFA-4EEF-AC76-272C361D66B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="86580" yWindow="45" windowWidth="25620" windowHeight="22740" xr2:uid="{AE443646-E8D1-4FCB-84A2-F0153A34DA1E}"/>
+    <workbookView xWindow="89355" yWindow="0" windowWidth="25620" windowHeight="23085" activeTab="1" xr2:uid="{AE443646-E8D1-4FCB-84A2-F0153A34DA1E}"/>
   </bookViews>
   <sheets>
     <sheet name="note" sheetId="1" r:id="rId1"/>
@@ -791,7 +791,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{651B1421-8802-4AD1-85C6-4C81BDB0FEBC}">
   <dimension ref="A1:A4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
@@ -821,8 +821,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72E77F90-5D71-4CEC-BEEE-B421AD8A8EDB}">
   <dimension ref="A1:S108"/>
   <sheetViews>
-    <sheetView topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="N112" sqref="N112"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -1209,7 +1209,7 @@
       </c>
       <c r="K7" s="2"/>
       <c r="L7" s="2">
-        <v>792.41</v>
+        <v>792.4</v>
       </c>
       <c r="M7" s="2">
         <v>919.2</v>
@@ -1219,11 +1219,11 @@
       </c>
       <c r="O7" s="4">
         <f t="shared" si="2"/>
-        <v>1.0000000000218279E-2</v>
+        <v>0</v>
       </c>
       <c r="Q7" s="4">
         <f t="shared" si="3"/>
-        <v>-9.9999999999909051E-3</v>
+        <v>0</v>
       </c>
       <c r="R7" s="4">
         <f t="shared" si="4"/>

--- a/rtss-pre1917/src/main/resources/csk-ezhegodnik-rossii/year-volumes/1905.xlsx
+++ b/rtss-pre1917/src/main/resources/csk-ezhegodnik-rossii/year-volumes/1905.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\github\RTSS\rtss-pre1917\src\main\resources\csk-ezhegodnik-rossii\year-volumes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21E23D9A-1DFA-4EEF-AC76-272C361D66B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CB2F086-2BBF-42CD-865A-454E3A20F445}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="89355" yWindow="0" windowWidth="25620" windowHeight="23085" activeTab="1" xr2:uid="{AE443646-E8D1-4FCB-84A2-F0153A34DA1E}"/>
+    <workbookView xWindow="89130" yWindow="930" windowWidth="24855" windowHeight="22575" xr2:uid="{AE443646-E8D1-4FCB-84A2-F0153A34DA1E}"/>
   </bookViews>
   <sheets>
     <sheet name="note" sheetId="1" r:id="rId1"/>
@@ -39,9 +39,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="124">
   <si>
-    <t>стр. 50-80</t>
-  </si>
-  <si>
     <t>губ</t>
   </si>
   <si>
@@ -409,6 +406,9 @@
   </si>
   <si>
     <t>население на 1 января 1905</t>
+  </si>
+  <si>
+    <t>стр. 40-65</t>
   </si>
 </sst>
 </file>
@@ -791,25 +791,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{651B1421-8802-4AD1-85C6-4C81BDB0FEBC}">
   <dimension ref="A1:A4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>123</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
   </sheetData>
@@ -821,8 +821,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72E77F90-5D71-4CEC-BEEE-B421AD8A8EDB}">
   <dimension ref="A1:S108"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L8" sqref="L8"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -840,59 +841,59 @@
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>7</v>
-      </c>
       <c r="E1" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F1" s="1"/>
       <c r="G1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="1" t="s">
-        <v>4</v>
-      </c>
       <c r="J1" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="K1" s="1"/>
       <c r="L1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="M1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="N1" s="1" t="s">
-        <v>10</v>
-      </c>
       <c r="O1" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="Q1" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="Q1" s="3" t="s">
+      <c r="R1" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="R1" s="3" t="s">
+      <c r="S1" s="3" t="s">
         <v>102</v>
-      </c>
-      <c r="S1" s="3" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B2" s="2">
         <v>168.9</v>
@@ -950,7 +951,7 @@
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B3" s="2">
         <v>494.9</v>
@@ -1008,7 +1009,7 @@
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B4" s="2">
         <v>972.6</v>
@@ -1066,7 +1067,7 @@
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B5" s="2">
         <v>782.9</v>
@@ -1122,7 +1123,7 @@
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B6" s="2">
         <v>720</v>
@@ -1178,7 +1179,7 @@
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B7" s="2">
         <v>687.6</v>
@@ -1236,7 +1237,7 @@
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B8" s="2">
         <v>679.4</v>
@@ -1294,7 +1295,7 @@
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B9" s="2">
         <v>1620.2</v>
@@ -1352,7 +1353,7 @@
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B10" s="2">
         <v>1416.8</v>
@@ -1410,7 +1411,7 @@
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B11" s="2">
         <v>1596.1</v>
@@ -1468,7 +1469,7 @@
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B12" s="2">
         <v>777.2</v>
@@ -1526,7 +1527,7 @@
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B13" s="2">
         <v>1385.4</v>
@@ -1584,7 +1585,7 @@
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B14" s="2">
         <v>1217.7</v>
@@ -1642,7 +1643,7 @@
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B15" s="2">
         <v>1112.5</v>
@@ -1700,7 +1701,7 @@
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B16" s="2">
         <v>523.70000000000005</v>
@@ -1758,7 +1759,7 @@
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B17" s="2">
         <v>1805.7</v>
@@ -1816,7 +1817,7 @@
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B18" s="2">
         <v>740.9</v>
@@ -1874,7 +1875,7 @@
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B19" s="2">
         <v>666.5</v>
@@ -1932,7 +1933,7 @@
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B20" s="2">
         <v>257.5</v>
@@ -1990,7 +1991,7 @@
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B21" s="2">
         <v>1251.3</v>
@@ -2048,7 +2049,7 @@
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B22" s="2">
         <v>477</v>
@@ -2106,7 +2107,7 @@
     </row>
     <row r="23" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B23" s="2">
         <v>1143.4000000000001</v>
@@ -2164,7 +2165,7 @@
     </row>
     <row r="24" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B24" s="2">
         <v>899.3</v>
@@ -2222,7 +2223,7 @@
     </row>
     <row r="25" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B25" s="2">
         <v>667</v>
@@ -2280,7 +2281,7 @@
     </row>
     <row r="26" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B26" s="2">
         <v>776.2</v>
@@ -2338,7 +2339,7 @@
     </row>
     <row r="27" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B27" s="2">
         <v>689.2</v>
@@ -2396,7 +2397,7 @@
     </row>
     <row r="28" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B28" s="2">
         <v>176.1</v>
@@ -2454,7 +2455,7 @@
     </row>
     <row r="29" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B29" s="2">
         <v>816.7</v>
@@ -2512,7 +2513,7 @@
     </row>
     <row r="30" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B30" s="2">
         <v>1007.3</v>
@@ -2570,7 +2571,7 @@
     </row>
     <row r="31" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B31" s="2">
         <v>729.4</v>
@@ -2628,7 +2629,7 @@
     </row>
     <row r="32" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B32" s="2">
         <v>1562.3</v>
@@ -2686,7 +2687,7 @@
     </row>
     <row r="33" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B33" s="2">
         <v>1621.8</v>
@@ -2744,7 +2745,7 @@
     </row>
     <row r="34" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B34" s="2">
         <v>1473.1</v>
@@ -2802,7 +2803,7 @@
     </row>
     <row r="35" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B35" s="2">
         <v>569.79999999999995</v>
@@ -2860,7 +2861,7 @@
     </row>
     <row r="36" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B36" s="2">
         <v>888.9</v>
@@ -2918,7 +2919,7 @@
     </row>
     <row r="37" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B37" s="2">
         <v>1498</v>
@@ -2976,7 +2977,7 @@
     </row>
     <row r="38" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B38" s="2">
         <v>353.9</v>
@@ -3034,7 +3035,7 @@
     </row>
     <row r="39" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B39" s="2">
         <v>1201.8</v>
@@ -3092,7 +3093,7 @@
     </row>
     <row r="40" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B40" s="2">
         <v>787.6</v>
@@ -3150,7 +3151,7 @@
     </row>
     <row r="41" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B41" s="2">
         <v>763.7</v>
@@ -3208,7 +3209,7 @@
     </row>
     <row r="42" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B42" s="2">
         <v>704.9</v>
@@ -3266,7 +3267,7 @@
     </row>
     <row r="43" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A43" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B43" s="2">
         <v>1401.1</v>
@@ -3324,7 +3325,7 @@
     </row>
     <row r="44" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A44" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B44" s="2">
         <v>857</v>
@@ -3382,7 +3383,7 @@
     </row>
     <row r="45" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A45" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B45" s="2">
         <v>670.6</v>
@@ -3440,7 +3441,7 @@
     </row>
     <row r="46" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A46" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B46" s="2">
         <v>1222.0999999999999</v>
@@ -3498,7 +3499,7 @@
     </row>
     <row r="47" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A47" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B47" s="2">
         <v>1260.3</v>
@@ -3556,7 +3557,7 @@
     </row>
     <row r="48" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A48" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B48" s="2">
         <v>1178.8</v>
@@ -3614,7 +3615,7 @@
     </row>
     <row r="49" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A49" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B49" s="2">
         <v>1217.5999999999999</v>
@@ -3672,7 +3673,7 @@
     </row>
     <row r="50" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A50" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B50" s="2">
         <v>179.8</v>
@@ -3730,7 +3731,7 @@
     </row>
     <row r="51" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A51" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B51" s="2">
         <v>435.6</v>
@@ -3788,7 +3789,7 @@
     </row>
     <row r="52" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A52" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B52" s="2">
         <v>46108.1</v>
@@ -3846,7 +3847,7 @@
     </row>
     <row r="53" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A53" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B53" s="2">
         <v>4207.3</v>
@@ -3904,7 +3905,7 @@
     </row>
     <row r="54" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A54" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B54" s="2">
         <v>652.70000000000005</v>
@@ -3962,7 +3963,7 @@
     </row>
     <row r="55" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A55" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B55" s="2">
         <v>414.6</v>
@@ -4020,7 +4021,7 @@
     </row>
     <row r="56" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A56" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B56" s="2">
         <v>410.8</v>
@@ -4078,7 +4079,7 @@
     </row>
     <row r="57" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A57" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B57" s="2">
         <v>289.3</v>
@@ -4136,7 +4137,7 @@
     </row>
     <row r="58" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A58" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B58" s="2">
         <v>593.9</v>
@@ -4194,7 +4195,7 @@
     </row>
     <row r="59" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A59" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B59" s="2">
         <v>525.5</v>
@@ -4252,7 +4253,7 @@
     </row>
     <row r="60" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A60" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B60" s="2">
         <v>254.2</v>
@@ -4310,7 +4311,7 @@
     </row>
     <row r="61" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A61" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B61" s="2">
         <v>408.1</v>
@@ -4368,7 +4369,7 @@
     </row>
     <row r="62" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A62" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B62" s="2">
         <v>272.89999999999998</v>
@@ -4426,7 +4427,7 @@
     </row>
     <row r="63" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A63" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B63" s="2">
         <v>385.3</v>
@@ -4484,7 +4485,7 @@
     </row>
     <row r="64" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A64" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B64" s="2">
         <v>4763.6000000000004</v>
@@ -4542,7 +4543,7 @@
     </row>
     <row r="65" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A65" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B65" s="2">
         <v>377.1</v>
@@ -4600,7 +4601,7 @@
     </row>
     <row r="66" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A66" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B66" s="2">
         <v>58.6</v>
@@ -4658,7 +4659,7 @@
     </row>
     <row r="67" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A67" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B67" s="2">
         <v>284.60000000000002</v>
@@ -4716,7 +4717,7 @@
     </row>
     <row r="68" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A68" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B68" s="2">
         <v>471.3</v>
@@ -4774,7 +4775,7 @@
     </row>
     <row r="69" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A69" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" s="2"/>
@@ -4814,7 +4815,7 @@
     </row>
     <row r="70" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A70" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B70" s="2">
         <v>164.4</v>
@@ -4872,7 +4873,7 @@
     </row>
     <row r="71" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A71" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B71" s="2">
         <v>1037.9000000000001</v>
@@ -4930,7 +4931,7 @@
     </row>
     <row r="72" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A72" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B72" s="2">
         <v>443.9</v>
@@ -4988,7 +4989,7 @@
     </row>
     <row r="73" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A73" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B73" s="2">
         <v>473.4</v>
@@ -5046,7 +5047,7 @@
     </row>
     <row r="74" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A74" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B74" s="2">
         <v>54.5</v>
@@ -5104,7 +5105,7 @@
     </row>
     <row r="75" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A75" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B75" s="2">
         <v>455.7</v>
@@ -5162,7 +5163,7 @@
     </row>
     <row r="76" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A76" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B76" s="2">
         <v>489.2</v>
@@ -5220,7 +5221,7 @@
     </row>
     <row r="77" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A77" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B77" s="2">
         <v>25.5</v>
@@ -5278,7 +5279,7 @@
     </row>
     <row r="78" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A78" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B78" s="2">
         <v>427.5</v>
@@ -5336,7 +5337,7 @@
     </row>
     <row r="79" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A79" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B79" s="2">
         <v>3076</v>
@@ -5394,7 +5395,7 @@
     </row>
     <row r="80" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A80" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B80" s="2">
         <v>58</v>
@@ -5452,7 +5453,7 @@
     </row>
     <row r="81" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A81" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B81" s="2">
         <v>299</v>
@@ -5510,7 +5511,7 @@
     </row>
     <row r="82" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A82" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B82" s="2">
         <v>350.7</v>
@@ -5568,7 +5569,7 @@
     </row>
     <row r="83" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A83" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B83" s="2">
         <v>249.7</v>
@@ -5626,7 +5627,7 @@
     </row>
     <row r="84" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A84" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B84" s="2">
         <v>113.1</v>
@@ -5684,7 +5685,7 @@
     </row>
     <row r="85" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A85" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B85" s="2"/>
       <c r="C85" s="2"/>
@@ -5724,7 +5725,7 @@
     </row>
     <row r="86" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A86" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B86" s="2">
         <v>760.4</v>
@@ -5782,7 +5783,7 @@
     </row>
     <row r="87" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A87" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B87" s="2">
         <v>1096.5999999999999</v>
@@ -5840,7 +5841,7 @@
     </row>
     <row r="88" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A88" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B88" s="2">
         <v>148.5</v>
@@ -5898,7 +5899,7 @@
     </row>
     <row r="89" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A89" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B89" s="2">
         <v>4132</v>
@@ -5954,7 +5955,7 @@
     </row>
     <row r="90" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A90" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B90" s="2">
         <v>361.6</v>
@@ -6012,7 +6013,7 @@
     </row>
     <row r="91" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A91" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B91" s="2">
         <v>183.2</v>
@@ -6070,7 +6071,7 @@
     </row>
     <row r="92" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A92" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B92" s="2">
         <v>464.3</v>
@@ -6128,7 +6129,7 @@
     </row>
     <row r="93" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A93" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B93" s="2">
         <v>369.1</v>
@@ -6186,7 +6187,7 @@
     </row>
     <row r="94" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A94" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B94" s="2">
         <v>549.1</v>
@@ -6244,7 +6245,7 @@
     </row>
     <row r="95" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A95" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B95" s="2">
         <v>811.7</v>
@@ -6302,7 +6303,7 @@
     </row>
     <row r="96" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A96" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B96" s="2">
         <v>252.1</v>
@@ -6360,7 +6361,7 @@
     </row>
     <row r="97" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A97" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B97" s="2">
         <v>348.5</v>
@@ -6418,7 +6419,7 @@
     </row>
     <row r="98" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A98" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B98" s="2">
         <v>792.4</v>
@@ -6476,7 +6477,7 @@
     </row>
     <row r="99" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A99" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B99" s="2">
         <v>1222.3</v>
@@ -6534,7 +6535,7 @@
     </row>
     <row r="100" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A100" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B100" s="2">
         <v>196.5</v>
@@ -6592,7 +6593,7 @@
     </row>
     <row r="101" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A101" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B101" s="2">
         <v>220.9</v>
@@ -6650,7 +6651,7 @@
     </row>
     <row r="102" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A102" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B102" s="2">
         <v>197.8</v>
@@ -6708,7 +6709,7 @@
     </row>
     <row r="103" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A103" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B103" s="2">
         <v>149.80000000000001</v>
@@ -6766,7 +6767,7 @@
     </row>
     <row r="104" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A104" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B104" s="2">
         <v>97.4</v>
@@ -6824,7 +6825,7 @@
     </row>
     <row r="105" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A105" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B105" s="2">
         <v>90.9</v>
@@ -6882,7 +6883,7 @@
     </row>
     <row r="106" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A106" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B106" s="2">
         <v>134.69999999999999</v>
@@ -6940,7 +6941,7 @@
     </row>
     <row r="107" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A107" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B107" s="2">
         <v>134.30000000000001</v>
@@ -6998,7 +6999,7 @@
     </row>
     <row r="108" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A108" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B108" s="2">
         <v>63509.3</v>
